--- a/Allocation/CSC4006-ProjectAllocations-2018-19.xlsx
+++ b/Allocation/CSC4006-ProjectAllocations-2018-19.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3050685\Dropbox\CSC4006-18-19\Allocations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianbai\Desktop\CSC4006-project\Allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E99DBF-CBBB-4189-832B-4788CB5761DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="7824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,189 +168,190 @@
     <t>Peter Kilpatrick</t>
   </si>
   <si>
+    <t>Implementation and Evaluation of an Embedded Processor on FPGA</t>
+  </si>
+  <si>
+    <t>Georgios Karakonstantis</t>
+  </si>
+  <si>
+    <t>Accelerated data analytics using Python-programmed FPGA hardware</t>
+  </si>
+  <si>
+    <t>Roger Woods</t>
+  </si>
+  <si>
+    <t>Investigation of Missingness in Complex Datasets</t>
+  </si>
+  <si>
+    <t>Analysis and optimization of performance of EEG-based brain decoding interfaces</t>
+  </si>
+  <si>
+    <t>Investigating the applications and limitation of full body tracking within virtual reality with respect to human interaction</t>
+  </si>
+  <si>
+    <t>Matthew Collins</t>
+  </si>
+  <si>
+    <t>Enhancing VR Experience through Improved Use of 3D Binaural Audio</t>
+  </si>
+  <si>
+    <t>Philip Hanna</t>
+  </si>
+  <si>
+    <t>Full Spectrum Ray-Tracing</t>
+  </si>
+  <si>
+    <t>Stuart Ferguson</t>
+  </si>
+  <si>
+    <t>Dynamic Path Planning for Multi-Player Computer Gaming</t>
+  </si>
+  <si>
+    <t>Ciarán Duncan</t>
+  </si>
+  <si>
+    <t>Gavin Stewart</t>
+  </si>
+  <si>
+    <t>Niamh Donnelly</t>
+  </si>
+  <si>
+    <t>Jonathon Hill</t>
+  </si>
+  <si>
+    <t>Adam Boucher</t>
+  </si>
+  <si>
+    <t>Domhnall Boyle</t>
+  </si>
+  <si>
+    <t>Ryan Gallagher</t>
+  </si>
+  <si>
+    <t>Michael Garland</t>
+  </si>
+  <si>
+    <t>Ryan McCloskey</t>
+  </si>
+  <si>
+    <t>Alexandra Samsonova</t>
+  </si>
+  <si>
+    <t>Shaun McDermott</t>
+  </si>
+  <si>
+    <t>Andrew Woods</t>
+  </si>
+  <si>
+    <t>Aoife Slevin</t>
+  </si>
+  <si>
+    <t>Timothy White</t>
+  </si>
+  <si>
+    <t>Karl McCoubrey</t>
+  </si>
+  <si>
+    <t>Arkadiusz Madej</t>
+  </si>
+  <si>
+    <t>Jonathan McChesney</t>
+  </si>
+  <si>
+    <t>Ieuan McDonnell</t>
+  </si>
+  <si>
+    <t>Lorcan O'Connor</t>
+  </si>
+  <si>
+    <t>Conor Mullin</t>
+  </si>
+  <si>
+    <t>Daniel Kitson</t>
+  </si>
+  <si>
+    <t>Joshua Kelso</t>
+  </si>
+  <si>
+    <t>James Aiken</t>
+  </si>
+  <si>
+    <t>Jason Kennedy</t>
+  </si>
+  <si>
+    <t>Adam Galway</t>
+  </si>
+  <si>
+    <t>Padraig Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Joseph Cargill</t>
+  </si>
+  <si>
+    <t>Shane Fearon</t>
+  </si>
+  <si>
+    <t>Benjamin Goudy</t>
+  </si>
+  <si>
+    <t>Tianbai Peng</t>
+  </si>
+  <si>
+    <t>Niall Shannon</t>
+  </si>
+  <si>
+    <t>David Burns</t>
+  </si>
+  <si>
+    <t>William Campbell</t>
+  </si>
+  <si>
+    <t>Erin Hughes</t>
+  </si>
+  <si>
+    <t>Fiona Mallett</t>
+  </si>
+  <si>
+    <t>William Gilmore</t>
+  </si>
+  <si>
+    <t>Paul Dunleavy</t>
+  </si>
+  <si>
+    <t>A Lightweight GPU Container</t>
+  </si>
+  <si>
+    <t>Ryan Dyson</t>
+  </si>
+  <si>
+    <t>Investigating the application of data analytics to streams of patient physiological</t>
+  </si>
+  <si>
+    <t>Machine Learning data analytics for the management of sensitive data</t>
+  </si>
+  <si>
+    <t>Antone Bagnall</t>
+  </si>
+  <si>
+    <t>Deep Relational Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Caitriona Dornan</t>
+  </si>
+  <si>
     <t>Adaptivity in Stateful Parallel Patterns</t>
-  </si>
-  <si>
-    <t>Implementation and Evaluation of an Embedded Processor on FPGA</t>
-  </si>
-  <si>
-    <t>Georgios Karakonstantis</t>
-  </si>
-  <si>
-    <t>Accelerated data analytics using Python-programmed FPGA hardware</t>
-  </si>
-  <si>
-    <t>Roger Woods</t>
-  </si>
-  <si>
-    <t>Investigation of Missingness in Complex Datasets</t>
-  </si>
-  <si>
-    <t>Analysis and optimization of performance of EEG-based brain decoding interfaces</t>
-  </si>
-  <si>
-    <t>Investigating the applications and limitation of full body tracking within virtual reality with respect to human interaction</t>
-  </si>
-  <si>
-    <t>Matthew Collins</t>
-  </si>
-  <si>
-    <t>Enhancing VR Experience through Improved Use of 3D Binaural Audio</t>
-  </si>
-  <si>
-    <t>Philip Hanna</t>
-  </si>
-  <si>
-    <t>Full Spectrum Ray-Tracing</t>
-  </si>
-  <si>
-    <t>Stuart Ferguson</t>
-  </si>
-  <si>
-    <t>Dynamic Path Planning for Multi-Player Computer Gaming</t>
-  </si>
-  <si>
-    <t>Ciarán Duncan</t>
-  </si>
-  <si>
-    <t>Gavin Stewart</t>
-  </si>
-  <si>
-    <t>Niamh Donnelly</t>
-  </si>
-  <si>
-    <t>Jonathon Hill</t>
-  </si>
-  <si>
-    <t>Adam Boucher</t>
-  </si>
-  <si>
-    <t>Domhnall Boyle</t>
-  </si>
-  <si>
-    <t>Ryan Gallagher</t>
-  </si>
-  <si>
-    <t>Michael Garland</t>
-  </si>
-  <si>
-    <t>Ryan McCloskey</t>
-  </si>
-  <si>
-    <t>Alexandra Samsonova</t>
-  </si>
-  <si>
-    <t>Shaun McDermott</t>
-  </si>
-  <si>
-    <t>Andrew Woods</t>
-  </si>
-  <si>
-    <t>Aoife Slevin</t>
-  </si>
-  <si>
-    <t>Timothy White</t>
-  </si>
-  <si>
-    <t>Karl McCoubrey</t>
-  </si>
-  <si>
-    <t>Arkadiusz Madej</t>
-  </si>
-  <si>
-    <t>Jonathan McChesney</t>
-  </si>
-  <si>
-    <t>Ieuan McDonnell</t>
-  </si>
-  <si>
-    <t>Lorcan O'Connor</t>
-  </si>
-  <si>
-    <t>Conor Mullin</t>
-  </si>
-  <si>
-    <t>Daniel Kitson</t>
-  </si>
-  <si>
-    <t>Joshua Kelso</t>
-  </si>
-  <si>
-    <t>James Aiken</t>
-  </si>
-  <si>
-    <t>Jason Kennedy</t>
-  </si>
-  <si>
-    <t>Adam Galway</t>
-  </si>
-  <si>
-    <t>Padraig Fitzpatrick</t>
-  </si>
-  <si>
-    <t>Joseph Cargill</t>
-  </si>
-  <si>
-    <t>Shane Fearon</t>
-  </si>
-  <si>
-    <t>Benjamin Goudy</t>
-  </si>
-  <si>
-    <t>Tianbai Peng</t>
-  </si>
-  <si>
-    <t>Niall Shannon</t>
-  </si>
-  <si>
-    <t>David Burns</t>
-  </si>
-  <si>
-    <t>William Campbell</t>
-  </si>
-  <si>
-    <t>Erin Hughes</t>
-  </si>
-  <si>
-    <t>Fiona Mallett</t>
-  </si>
-  <si>
-    <t>William Gilmore</t>
-  </si>
-  <si>
-    <t>Paul Dunleavy</t>
-  </si>
-  <si>
-    <t>A Lightweight GPU Container</t>
-  </si>
-  <si>
-    <t>Ryan Dyson</t>
-  </si>
-  <si>
-    <t>Investigating the application of data analytics to streams of patient physiological</t>
-  </si>
-  <si>
-    <t>Machine Learning data analytics for the management of sensitive data</t>
-  </si>
-  <si>
-    <t>Antone Bagnall</t>
-  </si>
-  <si>
-    <t>Deep Relational Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>Caitriona Dornan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -357,8 +359,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -387,7 +396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,18 +673,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,7 +706,7 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,18 +761,18 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +783,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,40 +794,40 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,18 +860,18 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,18 +882,18 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,18 +904,18 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,18 +926,18 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -939,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,7 +959,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,29 +970,29 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,18 +1014,18 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1036,7 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,7 +1058,7 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1060,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1071,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1093,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,38 +1113,48 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100199A9E8D67856D4793354F42BB1891B0" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4157610c7d003e843caaeeef93a277cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1249,15 +1268,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1265,13 +1275,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEAFE4A-F839-42FB-BF8D-4A3582DE14B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE5FBB1-499D-4EC7-9179-DB6C18E4CC21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE5FBB1-499D-4EC7-9179-DB6C18E4CC21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEAFE4A-F839-42FB-BF8D-4A3582DE14B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11EA0200-A5AA-49C9-8299-A81F171944F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11EA0200-A5AA-49C9-8299-A81F171944F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>